--- a/src/main/java/com/qa/testdata/UserName_PW.xlsx
+++ b/src/main/java/com/qa/testdata/UserName_PW.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TuTo\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="3735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="6135"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="account" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>togiadapda</t>
+  </si>
+  <si>
     <t>password</t>
   </si>
   <si>
-    <t>togiadapda</t>
+    <t>ahiahi</t>
+  </si>
+  <si>
+    <t>aaaaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbb</t>
+  </si>
+  <si>
+    <t>cccccccc</t>
+  </si>
+  <si>
+    <t>ddddddd</t>
+  </si>
+  <si>
+    <t>gggggg</t>
+  </si>
+  <si>
+    <t>ggggggg</t>
+  </si>
+  <si>
+    <t>tttt</t>
   </si>
 </sst>
 </file>
@@ -377,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -389,20 +409,60 @@
     <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
       <c r="B2">
-        <v>123456</v>
+        <v>12312321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
